--- a/SampleOutput/BloodSugarSimulatorTest.xlsx
+++ b/SampleOutput/BloodSugarSimulatorTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajesh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajesh/Code/git/HealthIQProject/SampleOutput/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="2560" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data Compare" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17501,11 +17500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359304336"/>
-        <c:axId val="359306384"/>
+        <c:axId val="-1286508176"/>
+        <c:axId val="-1286505856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359304336"/>
+        <c:axId val="-1286508176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17516,29 +17515,29 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359306384"/>
+        <c:crossAx val="-1286505856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359306384"/>
+        <c:axId val="-1286505856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359304336"/>
+        <c:crossAx val="-1286508176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17856,7 +17855,7 @@
   <dimension ref="A1:R1442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1402" sqref="G1402"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
